--- a/SchedulingData/dynamic10/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.48</v>
+        <v>207.28</v>
       </c>
       <c r="D2" t="n">
-        <v>273.04</v>
+        <v>285.28</v>
       </c>
       <c r="E2" t="n">
-        <v>14.376</v>
+        <v>13.672</v>
       </c>
     </row>
     <row r="3">
@@ -485,283 +485,283 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210.1</v>
+        <v>230.18</v>
       </c>
       <c r="D3" t="n">
-        <v>248.02</v>
+        <v>281.14</v>
       </c>
       <c r="E3" t="n">
-        <v>15.708</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>255.38</v>
+        <v>204.66</v>
       </c>
       <c r="D4" t="n">
-        <v>313.98</v>
+        <v>273.62</v>
       </c>
       <c r="E4" t="n">
-        <v>11.292</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>313.98</v>
+        <v>273.62</v>
       </c>
       <c r="D5" t="n">
-        <v>375.12</v>
+        <v>311.32</v>
       </c>
       <c r="E5" t="n">
-        <v>8.268000000000001</v>
+        <v>11.148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>224.18</v>
+        <v>208.86</v>
       </c>
       <c r="D6" t="n">
-        <v>278.38</v>
+        <v>243.48</v>
       </c>
       <c r="E6" t="n">
-        <v>15.672</v>
+        <v>14.332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>273.04</v>
+        <v>243.48</v>
       </c>
       <c r="D7" t="n">
-        <v>312.42</v>
+        <v>289.92</v>
       </c>
       <c r="E7" t="n">
-        <v>11.568</v>
+        <v>10.828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>213.04</v>
+        <v>217.76</v>
       </c>
       <c r="D8" t="n">
-        <v>252.56</v>
+        <v>286.32</v>
       </c>
       <c r="E8" t="n">
-        <v>12.444</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>252.56</v>
+        <v>286.32</v>
       </c>
       <c r="D9" t="n">
-        <v>297.96</v>
+        <v>329.66</v>
       </c>
       <c r="E9" t="n">
-        <v>10.024</v>
+        <v>11.124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>297.96</v>
+        <v>329.66</v>
       </c>
       <c r="D10" t="n">
-        <v>366.36</v>
+        <v>382.18</v>
       </c>
       <c r="E10" t="n">
-        <v>6.784</v>
+        <v>8.472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>278.38</v>
+        <v>219.5</v>
       </c>
       <c r="D11" t="n">
-        <v>327.14</v>
+        <v>293.2</v>
       </c>
       <c r="E11" t="n">
-        <v>12.916</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>209.9</v>
+        <v>293.2</v>
       </c>
       <c r="D12" t="n">
-        <v>250.84</v>
+        <v>362.18</v>
       </c>
       <c r="E12" t="n">
-        <v>13.596</v>
+        <v>7.992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>312.42</v>
+        <v>289.92</v>
       </c>
       <c r="D13" t="n">
-        <v>345.22</v>
+        <v>353.82</v>
       </c>
       <c r="E13" t="n">
-        <v>8.928000000000001</v>
+        <v>7.528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>250.84</v>
+        <v>382.18</v>
       </c>
       <c r="D14" t="n">
-        <v>310.8</v>
+        <v>414.98</v>
       </c>
       <c r="E14" t="n">
-        <v>11.22</v>
+        <v>5.832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>310.8</v>
+        <v>362.18</v>
       </c>
       <c r="D15" t="n">
-        <v>357.7</v>
+        <v>426.46</v>
       </c>
       <c r="E15" t="n">
-        <v>9.140000000000001</v>
+        <v>5.184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>327.14</v>
+        <v>426.46</v>
       </c>
       <c r="D16" t="n">
-        <v>398.1</v>
+        <v>462.24</v>
       </c>
       <c r="E16" t="n">
-        <v>10.42</v>
+        <v>2.736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>366.36</v>
+        <v>311.32</v>
       </c>
       <c r="D17" t="n">
-        <v>423.66</v>
+        <v>371.48</v>
       </c>
       <c r="E17" t="n">
-        <v>4.664</v>
+        <v>8.772</v>
       </c>
     </row>
     <row r="18">
@@ -770,188 +770,188 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>248.02</v>
+        <v>281.14</v>
       </c>
       <c r="D18" t="n">
-        <v>304.28</v>
+        <v>343.5</v>
       </c>
       <c r="E18" t="n">
-        <v>12.692</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>304.28</v>
+        <v>353.82</v>
       </c>
       <c r="D19" t="n">
-        <v>346.94</v>
+        <v>422.58</v>
       </c>
       <c r="E19" t="n">
-        <v>9.555999999999999</v>
+        <v>4.772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>375.12</v>
+        <v>414.98</v>
       </c>
       <c r="D20" t="n">
-        <v>433.46</v>
+        <v>468</v>
       </c>
       <c r="E20" t="n">
-        <v>5.564</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>346.94</v>
+        <v>422.58</v>
       </c>
       <c r="D21" t="n">
-        <v>384.74</v>
+        <v>467.88</v>
       </c>
       <c r="E21" t="n">
-        <v>7.396</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>433.46</v>
+        <v>343.5</v>
       </c>
       <c r="D22" t="n">
-        <v>477.76</v>
+        <v>385.72</v>
       </c>
       <c r="E22" t="n">
-        <v>2.264</v>
+        <v>7.788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>398.1</v>
+        <v>285.28</v>
       </c>
       <c r="D23" t="n">
-        <v>466.9</v>
+        <v>343.88</v>
       </c>
       <c r="E23" t="n">
-        <v>7.12</v>
+        <v>10.432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>384.74</v>
+        <v>371.48</v>
       </c>
       <c r="D24" t="n">
-        <v>429.02</v>
+        <v>426</v>
       </c>
       <c r="E24" t="n">
-        <v>4.588</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>423.66</v>
+        <v>385.72</v>
       </c>
       <c r="D25" t="n">
-        <v>473.28</v>
+        <v>423.62</v>
       </c>
       <c r="E25" t="n">
-        <v>2.332</v>
+        <v>5.628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>345.22</v>
+        <v>343.88</v>
       </c>
       <c r="D26" t="n">
-        <v>418.88</v>
+        <v>401.18</v>
       </c>
       <c r="E26" t="n">
-        <v>5.652</v>
+        <v>8.311999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>466.9</v>
+        <v>423.62</v>
       </c>
       <c r="D27" t="n">
-        <v>512.48</v>
+        <v>475.16</v>
       </c>
       <c r="E27" t="n">
-        <v>4.672</v>
+        <v>2.604</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>418.88</v>
+        <v>426</v>
       </c>
       <c r="D28" t="n">
-        <v>466</v>
+        <v>463.1</v>
       </c>
       <c r="E28" t="n">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond14</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>415.92</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5.948</v>
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
